--- a/database/industries/folad/fakhouz/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/folad/fakhouz/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4812B9-115B-4AC3-A541-AC66E7BC5FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1CA7DD-7B01-4DB6-B413-615855617842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -633,7 +633,7 @@
     <col min="11" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +647,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +693,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,7 +709,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +739,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -811,7 +811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,7 +825,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -861,7 +861,7 @@
         <v>1153688</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -897,7 +897,7 @@
         <v>-948446</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
@@ -933,7 +933,7 @@
         <v>205241</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
@@ -969,7 +969,7 @@
         <v>-71977</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>-15476</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>117788</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>-6207</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>30998</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>142579</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>-19980</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>122599</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>122599</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>597495</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/folad/fakhouz/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/folad/fakhouz/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1CA7DD-7B01-4DB6-B413-615855617842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEA8D80-51E6-4173-98FC-0473A46DED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>

--- a/database/industries/folad/fakhouz/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/folad/fakhouz/income/quarterly/dollar_cumulative.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\folad\fakhouz\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEA8D80-51E6-4173-98FC-0473A46DED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457ED9F6-BA41-41E8-8F01-07166FD70573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="708" yWindow="708" windowWidth="18204" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-10-07 (5)</t>
-  </si>
-  <si>
     <t>1400-10-30 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-29 (2)</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-04-18 (10)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-04-18 (3)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -626,11 +626,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
@@ -831,34 +832,34 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>578852</v>
+        <v>949252</v>
       </c>
       <c r="E11" s="13">
-        <v>949252</v>
+        <v>1355434</v>
       </c>
       <c r="F11" s="13">
-        <v>1355434</v>
+        <v>467501</v>
       </c>
       <c r="G11" s="13">
-        <v>467501</v>
+        <v>814684</v>
       </c>
       <c r="H11" s="13">
-        <v>814684</v>
+        <v>1270796</v>
       </c>
       <c r="I11" s="13">
-        <v>1270796</v>
+        <v>1903202</v>
       </c>
       <c r="J11" s="13">
-        <v>1903202</v>
+        <v>434379</v>
       </c>
       <c r="K11" s="13">
-        <v>434379</v>
+        <v>787739</v>
       </c>
       <c r="L11" s="13">
-        <v>787739</v>
+        <v>1153688</v>
       </c>
       <c r="M11" s="13">
-        <v>1153688</v>
+        <v>1503687</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -867,34 +868,34 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-373985</v>
+        <v>-576915</v>
       </c>
       <c r="E12" s="11">
-        <v>-576915</v>
+        <v>-813229</v>
       </c>
       <c r="F12" s="11">
-        <v>-813229</v>
+        <v>-256564</v>
       </c>
       <c r="G12" s="11">
-        <v>-256564</v>
+        <v>-476721</v>
       </c>
       <c r="H12" s="11">
-        <v>-476721</v>
+        <v>-764988</v>
       </c>
       <c r="I12" s="11">
-        <v>-764988</v>
+        <v>-1280068</v>
       </c>
       <c r="J12" s="11">
-        <v>-1280068</v>
+        <v>-301411</v>
       </c>
       <c r="K12" s="11">
-        <v>-301411</v>
+        <v>-621006</v>
       </c>
       <c r="L12" s="11">
-        <v>-621006</v>
+        <v>-948446</v>
       </c>
       <c r="M12" s="11">
-        <v>-948446</v>
+        <v>-1247339</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
@@ -903,34 +904,34 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>204867</v>
+        <v>372337</v>
       </c>
       <c r="E13" s="15">
-        <v>372337</v>
+        <v>542205</v>
       </c>
       <c r="F13" s="15">
-        <v>542205</v>
+        <v>210937</v>
       </c>
       <c r="G13" s="15">
-        <v>210937</v>
+        <v>337963</v>
       </c>
       <c r="H13" s="15">
-        <v>337963</v>
+        <v>505807</v>
       </c>
       <c r="I13" s="15">
-        <v>505807</v>
+        <v>623134</v>
       </c>
       <c r="J13" s="15">
-        <v>623134</v>
+        <v>132968</v>
       </c>
       <c r="K13" s="15">
-        <v>132968</v>
+        <v>166734</v>
       </c>
       <c r="L13" s="15">
-        <v>166734</v>
+        <v>205241</v>
       </c>
       <c r="M13" s="15">
-        <v>205241</v>
+        <v>256348</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -939,34 +940,34 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-22425</v>
+        <v>-35834</v>
       </c>
       <c r="E14" s="11">
-        <v>-35834</v>
+        <v>-54405</v>
       </c>
       <c r="F14" s="11">
-        <v>-54405</v>
+        <v>-20619</v>
       </c>
       <c r="G14" s="11">
-        <v>-20619</v>
+        <v>-37755</v>
       </c>
       <c r="H14" s="11">
-        <v>-37755</v>
+        <v>-55163</v>
       </c>
       <c r="I14" s="11">
-        <v>-55163</v>
+        <v>-81549</v>
       </c>
       <c r="J14" s="11">
-        <v>-81549</v>
+        <v>-30246</v>
       </c>
       <c r="K14" s="11">
-        <v>-30246</v>
+        <v>-67015</v>
       </c>
       <c r="L14" s="11">
-        <v>-67015</v>
+        <v>-71977</v>
       </c>
       <c r="M14" s="11">
-        <v>-71977</v>
+        <v>-93305</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
@@ -1011,34 +1012,34 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>13969</v>
+        <v>11007</v>
       </c>
       <c r="E16" s="11">
-        <v>11007</v>
+        <v>15384</v>
       </c>
       <c r="F16" s="11">
-        <v>15384</v>
+        <v>-12951</v>
       </c>
       <c r="G16" s="11">
-        <v>-12951</v>
+        <v>-14955</v>
       </c>
       <c r="H16" s="11">
-        <v>-14955</v>
+        <v>-16841</v>
       </c>
       <c r="I16" s="11">
-        <v>-16841</v>
+        <v>-32430</v>
       </c>
       <c r="J16" s="11">
-        <v>-32430</v>
+        <v>8774</v>
       </c>
       <c r="K16" s="11">
-        <v>8774</v>
+        <v>2826</v>
       </c>
       <c r="L16" s="11">
-        <v>2826</v>
+        <v>-15476</v>
       </c>
       <c r="M16" s="11">
-        <v>-15476</v>
+        <v>-6113</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
@@ -1047,34 +1048,34 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>196411</v>
+        <v>347510</v>
       </c>
       <c r="E17" s="15">
-        <v>347510</v>
+        <v>503184</v>
       </c>
       <c r="F17" s="15">
-        <v>503184</v>
+        <v>177367</v>
       </c>
       <c r="G17" s="15">
-        <v>177367</v>
+        <v>285253</v>
       </c>
       <c r="H17" s="15">
-        <v>285253</v>
+        <v>433804</v>
       </c>
       <c r="I17" s="15">
-        <v>433804</v>
+        <v>509155</v>
       </c>
       <c r="J17" s="15">
-        <v>509155</v>
+        <v>111497</v>
       </c>
       <c r="K17" s="15">
-        <v>111497</v>
+        <v>102545</v>
       </c>
       <c r="L17" s="15">
-        <v>102545</v>
+        <v>117788</v>
       </c>
       <c r="M17" s="15">
-        <v>117788</v>
+        <v>156931</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
@@ -1083,34 +1084,34 @@
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-5492</v>
+        <v>-7681</v>
       </c>
       <c r="E18" s="11">
-        <v>-7681</v>
+        <v>-12965</v>
       </c>
       <c r="F18" s="11">
-        <v>-12965</v>
+        <v>-3813</v>
       </c>
       <c r="G18" s="11">
-        <v>-3813</v>
+        <v>-7133</v>
       </c>
       <c r="H18" s="11">
-        <v>-7133</v>
+        <v>-10288</v>
       </c>
       <c r="I18" s="11">
-        <v>-10288</v>
+        <v>-15452</v>
       </c>
       <c r="J18" s="11">
-        <v>-15452</v>
+        <v>-5996</v>
       </c>
       <c r="K18" s="11">
-        <v>-5996</v>
+        <v>-4223</v>
       </c>
       <c r="L18" s="11">
-        <v>-4223</v>
+        <v>-6207</v>
       </c>
       <c r="M18" s="11">
-        <v>-6207</v>
+        <v>-11488</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
@@ -1119,34 +1120,34 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>12144</v>
+        <v>11758</v>
       </c>
       <c r="E19" s="13">
-        <v>11758</v>
+        <v>21257</v>
       </c>
       <c r="F19" s="13">
-        <v>21257</v>
+        <v>-3795</v>
       </c>
       <c r="G19" s="13">
-        <v>-3795</v>
+        <v>5554</v>
       </c>
       <c r="H19" s="13">
-        <v>5554</v>
+        <v>11002</v>
       </c>
       <c r="I19" s="13">
-        <v>11002</v>
+        <v>15977</v>
       </c>
       <c r="J19" s="13">
-        <v>15977</v>
+        <v>6314</v>
       </c>
       <c r="K19" s="13">
-        <v>6314</v>
+        <v>21200</v>
       </c>
       <c r="L19" s="13">
-        <v>21200</v>
+        <v>30998</v>
       </c>
       <c r="M19" s="13">
-        <v>30998</v>
+        <v>48340</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
@@ -1155,34 +1156,34 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>203063</v>
+        <v>351587</v>
       </c>
       <c r="E20" s="17">
-        <v>351587</v>
+        <v>511476</v>
       </c>
       <c r="F20" s="17">
-        <v>511476</v>
+        <v>169759</v>
       </c>
       <c r="G20" s="17">
-        <v>169759</v>
+        <v>283674</v>
       </c>
       <c r="H20" s="17">
-        <v>283674</v>
+        <v>434519</v>
       </c>
       <c r="I20" s="17">
-        <v>434519</v>
+        <v>509680</v>
       </c>
       <c r="J20" s="17">
-        <v>509680</v>
+        <v>111815</v>
       </c>
       <c r="K20" s="17">
-        <v>111815</v>
+        <v>119522</v>
       </c>
       <c r="L20" s="17">
-        <v>119522</v>
+        <v>142579</v>
       </c>
       <c r="M20" s="17">
-        <v>142579</v>
+        <v>193784</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
@@ -1191,34 +1192,34 @@
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-15871</v>
+        <v>-23616</v>
       </c>
       <c r="E21" s="13">
-        <v>-23616</v>
+        <v>-17639</v>
       </c>
       <c r="F21" s="13">
-        <v>-17639</v>
+        <v>-8410</v>
       </c>
       <c r="G21" s="13">
-        <v>-8410</v>
+        <v>-16513</v>
       </c>
       <c r="H21" s="13">
-        <v>-16513</v>
+        <v>-28578</v>
       </c>
       <c r="I21" s="13">
-        <v>-28578</v>
+        <v>-34371</v>
       </c>
       <c r="J21" s="13">
-        <v>-34371</v>
+        <v>-7066</v>
       </c>
       <c r="K21" s="13">
-        <v>-7066</v>
+        <v>-11054</v>
       </c>
       <c r="L21" s="13">
-        <v>-11054</v>
+        <v>-19980</v>
       </c>
       <c r="M21" s="13">
-        <v>-19980</v>
+        <v>-4570</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
@@ -1227,34 +1228,34 @@
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>187192</v>
+        <v>327971</v>
       </c>
       <c r="E22" s="17">
-        <v>327971</v>
+        <v>493837</v>
       </c>
       <c r="F22" s="17">
-        <v>493837</v>
+        <v>161349</v>
       </c>
       <c r="G22" s="17">
-        <v>161349</v>
+        <v>267160</v>
       </c>
       <c r="H22" s="17">
-        <v>267160</v>
+        <v>405941</v>
       </c>
       <c r="I22" s="17">
-        <v>405941</v>
+        <v>475309</v>
       </c>
       <c r="J22" s="17">
-        <v>475309</v>
+        <v>104749</v>
       </c>
       <c r="K22" s="17">
-        <v>104749</v>
+        <v>108468</v>
       </c>
       <c r="L22" s="17">
-        <v>108468</v>
+        <v>122599</v>
       </c>
       <c r="M22" s="17">
-        <v>122599</v>
+        <v>189214</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
@@ -1299,34 +1300,34 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>187192</v>
+        <v>327971</v>
       </c>
       <c r="E24" s="17">
-        <v>327971</v>
+        <v>493837</v>
       </c>
       <c r="F24" s="17">
-        <v>493837</v>
+        <v>161349</v>
       </c>
       <c r="G24" s="17">
-        <v>161349</v>
+        <v>267160</v>
       </c>
       <c r="H24" s="17">
-        <v>267160</v>
+        <v>405941</v>
       </c>
       <c r="I24" s="17">
-        <v>405941</v>
+        <v>475309</v>
       </c>
       <c r="J24" s="17">
-        <v>475309</v>
+        <v>104749</v>
       </c>
       <c r="K24" s="17">
-        <v>104749</v>
+        <v>108468</v>
       </c>
       <c r="L24" s="17">
-        <v>108468</v>
+        <v>122599</v>
       </c>
       <c r="M24" s="17">
-        <v>122599</v>
+        <v>189214</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
@@ -1371,34 +1372,34 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>258139</v>
+        <v>227313</v>
       </c>
       <c r="E26" s="11">
-        <v>227313</v>
+        <v>530733</v>
       </c>
       <c r="F26" s="11">
-        <v>530733</v>
+        <v>514360</v>
       </c>
       <c r="G26" s="11">
-        <v>514360</v>
+        <v>484249</v>
       </c>
       <c r="H26" s="11">
-        <v>484249</v>
+        <v>461282</v>
       </c>
       <c r="I26" s="11">
-        <v>461282</v>
+        <v>454798</v>
       </c>
       <c r="J26" s="11">
-        <v>454798</v>
+        <v>408375</v>
       </c>
       <c r="K26" s="11">
-        <v>408375</v>
+        <v>629250</v>
       </c>
       <c r="L26" s="11">
-        <v>629250</v>
+        <v>597495</v>
       </c>
       <c r="M26" s="11">
-        <v>597495</v>
+        <v>538411</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
